--- a/biology/Médecine/Relevé_individuel_d'activité_et_de_prescriptions/Relevé_individuel_d'activité_et_de_prescriptions.xlsx
+++ b/biology/Médecine/Relevé_individuel_d'activité_et_de_prescriptions/Relevé_individuel_d'activité_et_de_prescriptions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Relev%C3%A9_individuel_d%27activit%C3%A9_et_de_prescriptions</t>
+          <t>Relevé_individuel_d'activité_et_de_prescriptions</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Relevé individuel d'activité et de prescriptions (RIAP) est un récapitulatif envoyé tous les trois mois par les Caisses primaires d'assurance maladie aux médecins, sages-femmes et chirurgiens-dentistes sur lequel sont indiqués notamment le nombre de consultations, de visites à domicile, les prescriptions d'infirmiers, de pharmacie, de kinésithérapeute, de biologie, les arrêts maladie, le pourcentage de génériques, de patients en ALD (affection longue durée), de CMU ainsi que le taux URSSAF[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Relevé individuel d'activité et de prescriptions (RIAP) est un récapitulatif envoyé tous les trois mois par les Caisses primaires d'assurance maladie aux médecins, sages-femmes et chirurgiens-dentistes sur lequel sont indiqués notamment le nombre de consultations, de visites à domicile, les prescriptions d'infirmiers, de pharmacie, de kinésithérapeute, de biologie, les arrêts maladie, le pourcentage de génériques, de patients en ALD (affection longue durée), de CMU ainsi que le taux URSSAF.
 </t>
         </is>
       </c>
